--- a/data/women/W_2020_02_Dukla_Olomouc.xlsx
+++ b/data/women/W_2020_02_Dukla_Olomouc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96155F2-A469-48FA-85EC-BD69D64A1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC74B84-898A-4B2E-B7CE-EEB579E0E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-14424" windowWidth="17052" windowHeight="13464" tabRatio="724" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11196" yWindow="-15492" windowWidth="15228" windowHeight="14928" tabRatio="724" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,6 +44,17 @@
           <x15:modelTable id="Table059  Page 13   2_b5e09206-7736-42be-be79-4617e6279581" name="Table059  Page 13   2" connection="Query - Table059 (Page 13) (2)"/>
         </x15:modelTables>
       </x15:dataModel>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -99,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -332,10 +343,40 @@
     <t>Pool</t>
   </si>
   <si>
-    <t>Eliminace_</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Eliminace_64</t>
+  </si>
+  <si>
+    <t>Eliminace_32</t>
+  </si>
+  <si>
+    <t>Eliminace_16_A</t>
+  </si>
+  <si>
+    <t>Eliminace_8_A</t>
+  </si>
+  <si>
+    <t>Eliminace_16_B</t>
+  </si>
+  <si>
+    <t>Eliminace_16_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_8_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_8_B</t>
+  </si>
+  <si>
+    <t>Eliminace_8</t>
+  </si>
+  <si>
+    <t>Eliminace_4</t>
+  </si>
+  <si>
+    <t>Eliminace_2</t>
   </si>
 </sst>
 </file>
@@ -360,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -440,6 +487,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -725,7 +779,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3842,7 +3896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B489953-1C11-4007-B55A-F44C02A1AFAC}">
   <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3955,7 +4009,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J3" s="13">
         <v>3</v>
@@ -3990,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" s="13">
         <v>4</v>
@@ -4095,7 +4149,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="15">
         <v>2</v>
@@ -4130,7 +4184,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="13">
         <v>3</v>
@@ -4165,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="13">
         <v>4</v>
@@ -4305,7 +4359,7 @@
         <v>30</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="15">
         <v>3</v>
@@ -4410,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" s="13">
         <v>4</v>
@@ -4515,7 +4569,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="15">
         <v>2</v>
@@ -4585,7 +4639,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="13">
         <v>3</v>
@@ -4655,7 +4709,7 @@
         <v>49</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" s="13">
         <v>3</v>
@@ -4725,7 +4779,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J25" s="15">
         <v>4</v>
@@ -4760,7 +4814,7 @@
         <v>12</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J26" s="13">
         <v>2</v>
@@ -4795,7 +4849,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="13">
         <v>1</v>
@@ -4830,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="13">
         <v>1</v>
@@ -4900,7 +4954,7 @@
         <v>15</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J30" s="13">
         <v>4</v>
@@ -4935,7 +4989,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J31" s="15">
         <v>1</v>
@@ -4970,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" s="13">
         <v>1</v>
@@ -5005,7 +5059,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J33" s="13">
         <v>3</v>
@@ -5040,7 +5094,7 @@
         <v>8</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J34" s="13">
         <v>4</v>
@@ -5075,7 +5129,7 @@
         <v>12</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J35" s="13">
         <v>0</v>
@@ -5145,7 +5199,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J37" s="15">
         <v>2</v>
@@ -5390,7 +5444,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J44" s="17">
         <v>4</v>
@@ -5670,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J52" s="17">
         <v>1</v>
@@ -5740,7 +5794,7 @@
         <v>49</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J54" s="17">
         <v>4</v>
@@ -5810,7 +5864,7 @@
         <v>12</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J56" s="17">
         <v>0</v>
@@ -5845,7 +5899,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57" s="17">
         <v>0</v>
@@ -5880,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J58" s="17">
         <v>0</v>
@@ -5915,7 +5969,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J59" s="17">
         <v>2</v>
@@ -5950,7 +6004,7 @@
         <v>49</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J60" s="17">
         <v>3</v>
@@ -5985,7 +6039,7 @@
         <v>38</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J61" s="19">
         <v>0</v>
@@ -6020,7 +6074,7 @@
         <v>12</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J62" s="17">
         <v>3</v>
@@ -6230,7 +6284,7 @@
         <v>12</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J68" s="17">
         <v>4</v>
@@ -6265,7 +6319,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J69" s="17">
         <v>3</v>
@@ -6335,7 +6389,7 @@
         <v>12</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J71" s="17">
         <v>1</v>
@@ -6370,7 +6424,7 @@
         <v>49</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J72" s="17">
         <v>1</v>
@@ -6405,7 +6459,7 @@
         <v>38</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J73" s="19">
         <v>1</v>
@@ -6440,7 +6494,7 @@
         <v>12</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J74" s="17">
         <v>1</v>
@@ -6545,7 +6599,7 @@
         <v>12</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J77" s="17">
         <v>1</v>
@@ -6650,7 +6704,7 @@
         <v>12</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J80" s="17">
         <v>4</v>
@@ -6685,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J81" s="17">
         <v>4</v>
@@ -6755,7 +6809,7 @@
         <v>12</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J83" s="17">
         <v>2</v>
@@ -6825,7 +6879,7 @@
         <v>49</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J85" s="19">
         <v>4</v>
@@ -6930,7 +6984,7 @@
         <v>10</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J88" s="13">
         <v>3</v>
@@ -6965,7 +7019,7 @@
         <v>12</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J89" s="13">
         <v>3</v>
@@ -7000,7 +7054,7 @@
         <v>49</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J90" s="13">
         <v>4</v>
@@ -7070,7 +7124,7 @@
         <v>10</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J92" s="13">
         <v>0</v>
@@ -7140,7 +7194,7 @@
         <v>10</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J94" s="13">
         <v>4</v>
@@ -7175,7 +7229,7 @@
         <v>12</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J95" s="13">
         <v>1</v>
@@ -7210,7 +7264,7 @@
         <v>49</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J96" s="13">
         <v>0</v>
@@ -7280,7 +7334,7 @@
         <v>10</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J98" s="13">
         <v>4</v>
@@ -7315,7 +7369,7 @@
         <v>17</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J99" s="13">
         <v>3</v>
@@ -7385,7 +7439,7 @@
         <v>12</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J101" s="13">
         <v>4</v>
@@ -7560,7 +7614,7 @@
         <v>23</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J106" s="13">
         <v>4</v>
@@ -7595,7 +7649,7 @@
         <v>12</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J107" s="13">
         <v>4</v>
@@ -7630,7 +7684,7 @@
         <v>49</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J108" s="13">
         <v>3</v>
@@ -7980,7 +8034,7 @@
         <v>23</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J118" s="13">
         <v>4</v>
@@ -8050,7 +8104,7 @@
         <v>12</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J120" s="13">
         <v>4</v>
@@ -8120,7 +8174,7 @@
         <v>10</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J122" s="13">
         <v>4</v>
@@ -8155,7 +8209,7 @@
         <v>17</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J123" s="13">
         <v>4</v>
@@ -8190,7 +8244,7 @@
         <v>23</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J124" s="13">
         <v>2</v>
@@ -8225,7 +8279,7 @@
         <v>10</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J125" s="13">
         <v>1</v>
@@ -8260,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J126" s="13">
         <v>1</v>
@@ -8295,7 +8349,7 @@
         <v>49</v>
       </c>
       <c r="I127" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J127" s="15">
         <v>1</v>
@@ -8365,7 +8419,7 @@
         <v>5</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J129" s="17">
         <v>3</v>
@@ -8540,7 +8594,7 @@
         <v>10</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J134" s="17">
         <v>1</v>
@@ -8575,7 +8629,7 @@
         <v>5</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J135" s="17">
         <v>2</v>
@@ -8610,7 +8664,7 @@
         <v>10</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J136" s="17">
         <v>1</v>
@@ -8645,7 +8699,7 @@
         <v>21</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J137" s="17">
         <v>2</v>
@@ -8680,7 +8734,7 @@
         <v>12</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J138" s="17">
         <v>4</v>
@@ -8715,7 +8769,7 @@
         <v>26</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J139" s="19">
         <v>4</v>
@@ -8890,7 +8944,7 @@
         <v>12</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J144" s="17">
         <v>4</v>
@@ -8960,7 +9014,7 @@
         <v>10</v>
       </c>
       <c r="I146" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J146" s="17">
         <v>4</v>
@@ -9030,7 +9084,7 @@
         <v>5</v>
       </c>
       <c r="I148" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J148" s="17">
         <v>4</v>
@@ -9170,7 +9224,7 @@
         <v>10</v>
       </c>
       <c r="I152" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J152" s="17">
         <v>4</v>
@@ -9240,7 +9294,7 @@
         <v>5</v>
       </c>
       <c r="I154" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J154" s="17">
         <v>0</v>
@@ -9275,7 +9329,7 @@
         <v>10</v>
       </c>
       <c r="I155" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J155" s="17">
         <v>1</v>
@@ -9310,7 +9364,7 @@
         <v>12</v>
       </c>
       <c r="I156" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J156" s="17">
         <v>3</v>
@@ -9380,7 +9434,7 @@
         <v>10</v>
       </c>
       <c r="I158" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J158" s="17">
         <v>3</v>
@@ -9485,7 +9539,7 @@
         <v>10</v>
       </c>
       <c r="I161" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J161" s="17">
         <v>2</v>
@@ -9590,7 +9644,7 @@
         <v>10</v>
       </c>
       <c r="I164" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J164" s="17">
         <v>4</v>
@@ -9660,7 +9714,7 @@
         <v>5</v>
       </c>
       <c r="I166" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J166" s="17">
         <v>4</v>
@@ -9695,7 +9749,7 @@
         <v>10</v>
       </c>
       <c r="I167" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J167" s="17">
         <v>2</v>
@@ -9730,7 +9784,7 @@
         <v>21</v>
       </c>
       <c r="I168" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J168" s="17">
         <v>2</v>
@@ -9765,7 +9819,7 @@
         <v>12</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J169" s="19">
         <v>0</v>
@@ -9940,7 +9994,7 @@
         <v>8</v>
       </c>
       <c r="I174" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J174" s="15">
         <v>4</v>
@@ -9975,7 +10029,7 @@
         <v>10</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J175" s="13">
         <v>1</v>
@@ -10045,7 +10099,7 @@
         <v>17</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J177" s="13">
         <v>2</v>
@@ -10080,7 +10134,7 @@
         <v>30</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J178" s="13">
         <v>4</v>
@@ -10115,7 +10169,7 @@
         <v>8</v>
       </c>
       <c r="I179" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J179" s="15">
         <v>1</v>
@@ -10150,7 +10204,7 @@
         <v>10</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J180" s="13">
         <v>4</v>
@@ -10185,7 +10239,7 @@
         <v>10</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J181" s="13">
         <v>1</v>
@@ -10255,7 +10309,7 @@
         <v>30</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J183" s="13">
         <v>3</v>
@@ -10290,7 +10344,7 @@
         <v>8</v>
       </c>
       <c r="I184" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J184" s="15">
         <v>1</v>
@@ -10325,7 +10379,7 @@
         <v>10</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J185" s="13">
         <v>0</v>
@@ -10395,7 +10449,7 @@
         <v>12</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J187" s="13">
         <v>4</v>
@@ -10430,7 +10484,7 @@
         <v>30</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J188" s="13">
         <v>1</v>
@@ -10465,7 +10519,7 @@
         <v>8</v>
       </c>
       <c r="I189" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J189" s="15">
         <v>1</v>
@@ -10500,7 +10554,7 @@
         <v>10</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J190" s="13">
         <v>4</v>
@@ -10640,7 +10694,7 @@
         <v>8</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J194" s="15">
         <v>2</v>
@@ -10834,20 +10888,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06EAF55-25C1-4261-836C-C1882EF92601}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="11" width="8.88671875" style="9"/>
@@ -10895,33 +10949,102 @@
       <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="9">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>43884</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="24">
+        <v>15</v>
+      </c>
+      <c r="K3" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43884</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" t="s">
         <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="9">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -10931,8 +11054,32 @@
       <c r="B5" t="s">
         <v>66</v>
       </c>
+      <c r="C5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="E5" t="s">
         <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -10942,8 +11089,32 @@
       <c r="B6" t="s">
         <v>66</v>
       </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" t="s">
         <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="9">
+        <v>13</v>
+      </c>
+      <c r="K6" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -10953,8 +11124,32 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" t="s">
         <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="9">
+        <v>15</v>
+      </c>
+      <c r="K7" s="9">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -10964,8 +11159,32 @@
       <c r="B8" t="s">
         <v>66</v>
       </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" t="s">
         <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="9">
+        <v>15</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -10975,8 +11194,32 @@
       <c r="B9" t="s">
         <v>66</v>
       </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" t="s">
         <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4</v>
+      </c>
+      <c r="K9" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -10986,8 +11229,32 @@
       <c r="B10" t="s">
         <v>66</v>
       </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" t="s">
         <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="9">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -10997,8 +11264,32 @@
       <c r="B11" t="s">
         <v>66</v>
       </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" t="s">
         <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="9">
+        <v>15</v>
+      </c>
+      <c r="K11" s="9">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -11008,8 +11299,32 @@
       <c r="B12" t="s">
         <v>66</v>
       </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" t="s">
         <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="9">
+        <v>14</v>
+      </c>
+      <c r="K12" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -11019,8 +11334,32 @@
       <c r="B13" t="s">
         <v>66</v>
       </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" t="s">
         <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="9">
+        <v>6</v>
+      </c>
+      <c r="K13" s="9">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -11030,8 +11369,32 @@
       <c r="B14" t="s">
         <v>66</v>
       </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" t="s">
         <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="9">
+        <v>12</v>
+      </c>
+      <c r="K14" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -11041,8 +11404,32 @@
       <c r="B15" t="s">
         <v>66</v>
       </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" t="s">
         <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="9">
+        <v>15</v>
+      </c>
+      <c r="K15" s="9">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -11052,10 +11439,3710 @@
       <c r="B16" t="s">
         <v>66</v>
       </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
-    </row>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="9">
+        <v>11</v>
+      </c>
+      <c r="K16" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="9">
+        <v>15</v>
+      </c>
+      <c r="K17" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="9">
+        <v>8</v>
+      </c>
+      <c r="K18" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="9">
+        <v>15</v>
+      </c>
+      <c r="K19" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="9">
+        <v>15</v>
+      </c>
+      <c r="K20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="9">
+        <v>5</v>
+      </c>
+      <c r="K21" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="9">
+        <v>4</v>
+      </c>
+      <c r="K22" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="9">
+        <v>15</v>
+      </c>
+      <c r="K23" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="9">
+        <v>11</v>
+      </c>
+      <c r="K24" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="9">
+        <v>15</v>
+      </c>
+      <c r="K25" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="9">
+        <v>6</v>
+      </c>
+      <c r="K26" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="9">
+        <v>15</v>
+      </c>
+      <c r="K27" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="9">
+        <v>14</v>
+      </c>
+      <c r="K28" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="9">
+        <v>15</v>
+      </c>
+      <c r="K29" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="9">
+        <v>13</v>
+      </c>
+      <c r="K30" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="9">
+        <v>15</v>
+      </c>
+      <c r="K31" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="9">
+        <v>12</v>
+      </c>
+      <c r="K32" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="9">
+        <v>15</v>
+      </c>
+      <c r="K33" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="9">
+        <v>7</v>
+      </c>
+      <c r="K34" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="24">
+        <v>15</v>
+      </c>
+      <c r="K35" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="9">
+        <v>15</v>
+      </c>
+      <c r="K36" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="9">
+        <v>7</v>
+      </c>
+      <c r="K37" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="9">
+        <v>15</v>
+      </c>
+      <c r="K38" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="9">
+        <v>13</v>
+      </c>
+      <c r="K39" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="9">
+        <v>13</v>
+      </c>
+      <c r="K40" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="9">
+        <v>15</v>
+      </c>
+      <c r="K41" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="9">
+        <v>7</v>
+      </c>
+      <c r="K42" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="9">
+        <v>15</v>
+      </c>
+      <c r="K43" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="9">
+        <v>15</v>
+      </c>
+      <c r="K44" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="9">
+        <v>14</v>
+      </c>
+      <c r="K45" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="9">
+        <v>14</v>
+      </c>
+      <c r="K46" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="9">
+        <v>15</v>
+      </c>
+      <c r="K47" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="9">
+        <v>15</v>
+      </c>
+      <c r="K48" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="9">
+        <v>14</v>
+      </c>
+      <c r="K49" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="9">
+        <v>15</v>
+      </c>
+      <c r="K50" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="24">
+        <v>14</v>
+      </c>
+      <c r="K51" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="9">
+        <v>15</v>
+      </c>
+      <c r="K52" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="9">
+        <v>8</v>
+      </c>
+      <c r="K53" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="9">
+        <v>13</v>
+      </c>
+      <c r="K54" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="9">
+        <v>15</v>
+      </c>
+      <c r="K55" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" s="9">
+        <v>15</v>
+      </c>
+      <c r="K56" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="9">
+        <v>9</v>
+      </c>
+      <c r="K57" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="9">
+        <v>10</v>
+      </c>
+      <c r="K58" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" s="24">
+        <v>15</v>
+      </c>
+      <c r="K59" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="9">
+        <v>11</v>
+      </c>
+      <c r="K60" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="9">
+        <v>15</v>
+      </c>
+      <c r="K61" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="9">
+        <v>8</v>
+      </c>
+      <c r="K62" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J63" s="9">
+        <v>15</v>
+      </c>
+      <c r="K63" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="9">
+        <v>10</v>
+      </c>
+      <c r="K64" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J65" s="9">
+        <v>15</v>
+      </c>
+      <c r="K65" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="9">
+        <v>15</v>
+      </c>
+      <c r="K66" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J67" s="9">
+        <v>7</v>
+      </c>
+      <c r="K67" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="9">
+        <v>9</v>
+      </c>
+      <c r="K68" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" s="9">
+        <v>15</v>
+      </c>
+      <c r="K69" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J70" s="9">
+        <v>15</v>
+      </c>
+      <c r="K70" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="9">
+        <v>9</v>
+      </c>
+      <c r="K71" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J72" s="9">
+        <v>15</v>
+      </c>
+      <c r="K72" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J73" s="9">
+        <v>10</v>
+      </c>
+      <c r="K73" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J74" s="9">
+        <v>12</v>
+      </c>
+      <c r="K74" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J75" s="24">
+        <v>15</v>
+      </c>
+      <c r="K75" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J76" s="9">
+        <v>15</v>
+      </c>
+      <c r="K76" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" s="9">
+        <v>6</v>
+      </c>
+      <c r="K77" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J78" s="9">
+        <v>15</v>
+      </c>
+      <c r="K78" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79" s="9">
+        <v>12</v>
+      </c>
+      <c r="K79" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J80" s="9">
+        <v>15</v>
+      </c>
+      <c r="K80" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J81" s="9">
+        <v>8</v>
+      </c>
+      <c r="K81" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G82" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J82" s="9">
+        <v>15</v>
+      </c>
+      <c r="K82" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J83" s="9">
+        <v>9</v>
+      </c>
+      <c r="K83" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J84" s="9">
+        <v>15</v>
+      </c>
+      <c r="K84" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G85" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J85" s="9">
+        <v>9</v>
+      </c>
+      <c r="K85" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J86" s="9">
+        <v>12</v>
+      </c>
+      <c r="K86" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" s="9">
+        <v>15</v>
+      </c>
+      <c r="K87" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" s="9">
+        <v>15</v>
+      </c>
+      <c r="K88" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J89" s="9">
+        <v>12</v>
+      </c>
+      <c r="K89" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J90" s="9">
+        <v>12</v>
+      </c>
+      <c r="K90" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="24">
+        <v>15</v>
+      </c>
+      <c r="K91" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J92" s="9">
+        <v>15</v>
+      </c>
+      <c r="K92" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G93" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="9">
+        <v>12</v>
+      </c>
+      <c r="K93" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J94" s="9">
+        <v>13</v>
+      </c>
+      <c r="K94" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G95" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J95" s="9">
+        <v>15</v>
+      </c>
+      <c r="K95" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J96" s="9">
+        <v>13</v>
+      </c>
+      <c r="K96" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J97" s="9">
+        <v>15</v>
+      </c>
+      <c r="K97" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J98" s="9">
+        <v>15</v>
+      </c>
+      <c r="K98" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>67</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J99" s="24">
+        <v>8</v>
+      </c>
+      <c r="K99" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>67</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J100" s="9">
+        <v>14</v>
+      </c>
+      <c r="K100" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J101" s="9">
+        <v>15</v>
+      </c>
+      <c r="K101" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B102" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G102" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J102" s="9">
+        <v>15</v>
+      </c>
+      <c r="K102" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" s="9">
+        <v>10</v>
+      </c>
+      <c r="K103" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G104" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J104" s="9">
+        <v>15</v>
+      </c>
+      <c r="K104" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J105" s="9">
+        <v>14</v>
+      </c>
+      <c r="K105" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>67</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J106" s="9">
+        <v>11</v>
+      </c>
+      <c r="K106" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J107" s="24">
+        <v>15</v>
+      </c>
+      <c r="K107" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F108" t="s">
+        <v>86</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J108" s="9">
+        <v>15</v>
+      </c>
+      <c r="K108" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B109" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" t="s">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J109" s="9">
+        <v>8</v>
+      </c>
+      <c r="K109" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" t="s">
+        <v>86</v>
+      </c>
+      <c r="G110" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J110" s="9">
+        <v>15</v>
+      </c>
+      <c r="K110" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B111" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>67</v>
+      </c>
+      <c r="F111" t="s">
+        <v>86</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J111" s="9">
+        <v>12</v>
+      </c>
+      <c r="K111" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B112" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>67</v>
+      </c>
+      <c r="F112" t="s">
+        <v>86</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J112" s="9">
+        <v>12</v>
+      </c>
+      <c r="K112" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B113" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113" t="s">
+        <v>86</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J113" s="9">
+        <v>15</v>
+      </c>
+      <c r="K113" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114" t="s">
+        <v>86</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J114" s="9">
+        <v>12</v>
+      </c>
+      <c r="K114" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J115" s="24">
+        <v>15</v>
+      </c>
+      <c r="K115" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B116" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J116" s="9">
+        <v>15</v>
+      </c>
+      <c r="K116" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J117" s="9">
+        <v>14</v>
+      </c>
+      <c r="K117" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B118" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" t="s">
+        <v>87</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J118" s="9">
+        <v>14</v>
+      </c>
+      <c r="K118" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>67</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J119" s="24">
+        <v>15</v>
+      </c>
+      <c r="K119" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" t="s">
+        <v>88</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J120" s="9">
+        <v>15</v>
+      </c>
+      <c r="K120" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I121" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J121" s="24">
+        <v>13</v>
+      </c>
+      <c r="K121" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{E06EAF55-25C1-4261-836C-C1882EF92601}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/women/W_2020_02_Dukla_Olomouc.xlsx
+++ b/data/women/W_2020_02_Dukla_Olomouc.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC74B84-898A-4B2E-B7CE-EEB579E0E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F634DAEC-0B28-4888-A44D-0A3CF4DB2C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11196" yWindow="-15492" windowWidth="15228" windowHeight="14928" tabRatio="724" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2352" yWindow="-10620" windowWidth="23040" windowHeight="7716" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -378,6 +380,9 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -454,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -496,6 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,11 +781,1925 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2E3821-F487-4702-9C34-4D4F390F085C}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q10" sqref="D10:Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0.83</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="5">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="25">
+        <f>P2/MAX($P$2:$P$35)</f>
+        <v>0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="25">
+        <f t="shared" ref="Q3:Q35" si="0">P3/MAX($P$2:$P$35)</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>29490</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.83</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="5">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="25">
+        <f t="shared" si="0"/>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>37189</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.67</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>33010</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.83</v>
+      </c>
+      <c r="K6">
+        <v>28</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14705882352941177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.17</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>-14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="5">
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1">
+        <v>33604</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>-11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="5">
+        <v>27</v>
+      </c>
+      <c r="P8">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="5">
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.3235294117647059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0.67</v>
+      </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="5">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="25">
+        <f t="shared" si="0"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>99</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35796</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>-25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="5">
+        <v>34</v>
+      </c>
+      <c r="P11">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1">
+        <v>36889</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="5">
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.61764705882352944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35431</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0.33</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>-6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="5">
+        <v>23</v>
+      </c>
+      <c r="P13">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.76470588235294112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14" s="1">
+        <v>33239</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0.67</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="5">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="25">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1">
+        <v>36404</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.17</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>-12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="5">
+        <v>28</v>
+      </c>
+      <c r="P15">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="25">
+        <f t="shared" si="0"/>
+        <v>0.8529411764705882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>36130</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>0.83</v>
+      </c>
+      <c r="K16">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="5">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.38235294117647056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>0.67</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="5">
+        <v>11</v>
+      </c>
+      <c r="P17">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>30</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="25">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="5">
+        <v>19</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="5">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="25">
+        <f t="shared" si="0"/>
+        <v>0.20588235294117646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>99</v>
+      </c>
+      <c r="H21" s="1">
+        <v>36526</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.17</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>28</v>
+      </c>
+      <c r="M21">
+        <v>-14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="5">
+        <v>31</v>
+      </c>
+      <c r="P21">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1">
+        <v>36481</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>0.6</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="5">
+        <v>15</v>
+      </c>
+      <c r="P22">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="25">
+        <f t="shared" si="0"/>
+        <v>0.73529411764705888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>47</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30846</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>0.67</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="5">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="25">
+        <f t="shared" si="0"/>
+        <v>0.55882352941176472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>36325</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="5">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="25">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>99</v>
+      </c>
+      <c r="H25" s="1">
+        <v>36161</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>0.67</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="5">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="25">
+        <f t="shared" si="0"/>
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>99</v>
+      </c>
+      <c r="H26" s="1">
+        <v>35796</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>-17</v>
+      </c>
+      <c r="N26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="5">
+        <v>33</v>
+      </c>
+      <c r="P26">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="25">
+        <f t="shared" si="0"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0.33</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="5">
+        <v>22</v>
+      </c>
+      <c r="P27">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="0"/>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>36429</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>0.8</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="5">
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="25">
+        <f t="shared" si="0"/>
+        <v>0.44117647058823528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>99</v>
+      </c>
+      <c r="H29" s="1">
+        <v>37257</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>-16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="5">
+        <v>32</v>
+      </c>
+      <c r="P29">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="25">
+        <f t="shared" si="0"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>99</v>
+      </c>
+      <c r="H30" s="1">
+        <v>33239</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.17</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>-12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="5">
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="25">
+        <f t="shared" si="0"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.2</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>-10</v>
+      </c>
+      <c r="N31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="5">
+        <v>26</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="25">
+        <f t="shared" si="0"/>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1">
+        <v>37441</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>26</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="5">
+        <v>16</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="25">
+        <f t="shared" si="0"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>99</v>
+      </c>
+      <c r="H33" s="1">
+        <v>33239</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0.33</v>
+      </c>
+      <c r="K33">
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <v>-12</v>
+      </c>
+      <c r="N33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="5">
+        <v>24</v>
+      </c>
+      <c r="P33">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="25">
+        <f t="shared" si="0"/>
+        <v>0.79411764705882348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>99</v>
+      </c>
+      <c r="H34" s="1">
+        <v>30894</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>25</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="5">
+        <v>17</v>
+      </c>
+      <c r="P34">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="25">
+        <f t="shared" si="0"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>58</v>
+      </c>
+      <c r="H35" s="1">
+        <v>34995</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.2</v>
+      </c>
+      <c r="K35">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>-8</v>
+      </c>
+      <c r="N35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="5">
+        <v>25</v>
+      </c>
+      <c r="P35">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="25">
+        <f t="shared" si="0"/>
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{BD2E3821-F487-4702-9C34-4D4F390F085C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,12 +3420,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFF9DE-D100-4E0C-9016-57911E5C472C}">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,31 +3479,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>60</v>
@@ -1641,31 +3561,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
         <v>60</v>
@@ -1682,10 +3602,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1694,19 +3614,19 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>60</v>
@@ -1723,10 +3643,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1741,13 +3661,13 @@
         <v>0.83</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
@@ -1764,31 +3684,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>-14</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -1805,31 +3725,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>-11</v>
       </c>
       <c r="J8" t="s">
         <v>60</v>
@@ -1846,10 +3766,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1858,19 +3778,19 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>60</v>
@@ -1928,31 +3848,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="J11" t="s">
         <v>60</v>
@@ -1969,31 +3889,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
         <v>26</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>60</v>
@@ -2010,31 +3930,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="J13" t="s">
         <v>60</v>
@@ -2051,16 +3971,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -2069,13 +3989,13 @@
         <v>0.67</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>60</v>
@@ -2092,31 +4012,31 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="G15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="J15" t="s">
         <v>60</v>
@@ -2133,31 +4053,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
         <v>60</v>
@@ -2174,31 +4094,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G17">
         <v>26</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
         <v>60</v>
@@ -2215,31 +4135,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
         <v>60</v>
@@ -2256,10 +4176,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -2274,13 +4194,13 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>60</v>
@@ -2297,13 +4217,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -2315,13 +4235,13 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
         <v>60</v>
@@ -2338,31 +4258,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G21">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="J21" t="s">
         <v>60</v>
@@ -2379,13 +4299,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -2394,16 +4314,16 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>60</v>
@@ -2420,31 +4340,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23">
         <v>21</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
@@ -2461,31 +4381,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I24">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
@@ -2502,31 +4422,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I25">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
@@ -2543,31 +4463,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I26">
-        <v>-8</v>
+        <v>-17</v>
       </c>
       <c r="J26" t="s">
         <v>60</v>
@@ -2584,31 +4504,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H27">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>60</v>
@@ -2625,31 +4545,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I28">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
         <v>60</v>
@@ -2666,31 +4586,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I29">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="J29" t="s">
         <v>60</v>
@@ -2748,13 +4668,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -2763,16 +4683,16 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I31">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="J31" t="s">
         <v>60</v>
@@ -2789,31 +4709,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H32">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I32">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>60</v>
@@ -2830,31 +4750,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I33">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="J33" t="s">
         <v>60</v>
@@ -2871,31 +4791,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I34">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>60</v>
@@ -2912,31 +4832,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I35">
-        <v>-25</v>
+        <v>-8</v>
       </c>
       <c r="J35" t="s">
         <v>60</v>
@@ -2952,18 +4872,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{2CFFF9DE-D100-4E0C-9016-57911E5C472C}"/>
+  <autoFilter ref="A1:M1" xr:uid="{2CFFF9DE-D100-4E0C-9016-57911E5C472C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M35">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61C410-B8A7-4613-B3FA-72FF481746B7}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="F24:G24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3003,19 +4927,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>33018</v>
+        <v>37414</v>
       </c>
       <c r="F2" s="1">
         <v>43884</v>
@@ -3029,19 +4953,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>36325</v>
+        <v>36617</v>
       </c>
       <c r="F3" s="1">
         <v>43884</v>
@@ -3055,19 +4979,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>36617</v>
+        <v>29490</v>
       </c>
       <c r="F4" s="1">
         <v>43884</v>
@@ -3081,19 +5005,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>36590</v>
+        <v>37189</v>
       </c>
       <c r="F5" s="1">
         <v>43884</v>
@@ -3133,19 +5057,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>37189</v>
+        <v>33420</v>
       </c>
       <c r="F7" s="1">
         <v>43884</v>
@@ -3159,19 +5083,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>37444</v>
+        <v>33604</v>
       </c>
       <c r="F8" s="1">
         <v>43884</v>
@@ -3185,19 +5109,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1">
-        <v>36310</v>
+        <v>36590</v>
       </c>
       <c r="F9" s="1">
         <v>43884</v>
@@ -3211,19 +5135,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>37414</v>
+        <v>36590</v>
       </c>
       <c r="F10" s="1">
         <v>43884</v>
@@ -3237,19 +5161,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>37441</v>
+        <v>35796</v>
       </c>
       <c r="F11" s="1">
         <v>43884</v>
@@ -3263,19 +5187,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>36590</v>
+        <v>36889</v>
       </c>
       <c r="F12" s="1">
         <v>43884</v>
@@ -3289,19 +5213,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>37171</v>
+        <v>35431</v>
       </c>
       <c r="F13" s="1">
         <v>43884</v>
@@ -3315,19 +5239,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1">
-        <v>36130</v>
+        <v>33239</v>
       </c>
       <c r="F14" s="1">
         <v>43884</v>
@@ -3341,19 +5265,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>29490</v>
+        <v>36404</v>
       </c>
       <c r="F15" s="1">
         <v>43884</v>
@@ -3367,19 +5291,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="1">
-        <v>36429</v>
+        <v>36130</v>
       </c>
       <c r="F16" s="1">
         <v>43884</v>
@@ -3393,19 +5317,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>36161</v>
+        <v>37401</v>
       </c>
       <c r="F17" s="1">
         <v>43884</v>
@@ -3419,19 +5343,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>33239</v>
+        <v>33018</v>
       </c>
       <c r="F18" s="1">
         <v>43884</v>
@@ -3445,19 +5369,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1">
-        <v>37401</v>
+        <v>36310</v>
       </c>
       <c r="F19" s="1">
         <v>43884</v>
@@ -3471,19 +5395,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>30846</v>
+        <v>37444</v>
       </c>
       <c r="F20" s="1">
         <v>43884</v>
@@ -3497,19 +5421,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
-        <v>30894</v>
+        <v>36526</v>
       </c>
       <c r="F21" s="1">
         <v>43884</v>
@@ -3523,19 +5447,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>36889</v>
+        <v>36481</v>
       </c>
       <c r="F22" s="1">
         <v>43884</v>
@@ -3549,19 +5473,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="1">
-        <v>35707</v>
+        <v>30846</v>
       </c>
       <c r="F23" s="1">
         <v>43884</v>
@@ -3575,19 +5499,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="1">
-        <v>34995</v>
+        <v>36325</v>
       </c>
       <c r="F24" s="1">
         <v>43884</v>
@@ -3601,10 +5525,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
@@ -3613,7 +5537,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="1">
-        <v>36526</v>
+        <v>36161</v>
       </c>
       <c r="F25" s="1">
         <v>43884</v>
@@ -3627,19 +5551,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="1">
-        <v>36481</v>
+        <v>35796</v>
       </c>
       <c r="F26" s="1">
         <v>43884</v>
@@ -3653,19 +5577,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="1">
-        <v>35431</v>
+        <v>35707</v>
       </c>
       <c r="F27" s="1">
         <v>43884</v>
@@ -3679,19 +5603,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1">
-        <v>33239</v>
+        <v>36429</v>
       </c>
       <c r="F28" s="1">
         <v>43884</v>
@@ -3705,19 +5629,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1">
-        <v>33604</v>
+        <v>37257</v>
       </c>
       <c r="F29" s="1">
         <v>43884</v>
@@ -3731,19 +5655,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="1">
-        <v>36404</v>
+        <v>33239</v>
       </c>
       <c r="F30" s="1">
         <v>43884</v>
@@ -3757,19 +5681,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>33239</v>
+        <v>37171</v>
       </c>
       <c r="F31" s="1">
         <v>43884</v>
@@ -3783,19 +5707,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>33420</v>
+        <v>37441</v>
       </c>
       <c r="F32" s="1">
         <v>43884</v>
@@ -3809,19 +5733,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>37257</v>
+        <v>33239</v>
       </c>
       <c r="F33" s="1">
         <v>43884</v>
@@ -3835,19 +5759,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="1">
-        <v>35796</v>
+        <v>30894</v>
       </c>
       <c r="F34" s="1">
         <v>43884</v>
@@ -3861,19 +5785,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1">
-        <v>35796</v>
+        <v>34995</v>
       </c>
       <c r="F35" s="1">
         <v>43884</v>
@@ -3886,13 +5810,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{8A61C410-B8A7-4613-B3FA-72FF481746B7}"/>
+  <autoFilter ref="A1:H1" xr:uid="{8A61C410-B8A7-4613-B3FA-72FF481746B7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H35">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B489953-1C11-4007-B55A-F44C02A1AFAC}">
   <dimension ref="A1:K200"/>
   <sheetViews>
@@ -10886,11 +12814,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06EAF55-25C1-4261-836C-C1882EF92601}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
